--- a/TC.xlsx
+++ b/TC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakao_ent/Desktop/WEB-QA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakao_ent/Desktop/WEB_QA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6825D4B6-ADE2-5F41-A79D-5F7A1C42A803}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A389053B-0C0A-1548-BE3A-1E5133E3B54B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>비고</t>
-  </si>
-  <si>
-    <t>Index</t>
   </si>
   <si>
     <t>POSTYPE 채용안내 페이지 접속</t>
@@ -321,6 +318,10 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -351,15 +352,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -367,11 +374,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -379,10 +401,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -605,9 +633,7 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
   <cols>
@@ -620,25 +646,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1"/>
@@ -662,23 +688,23 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="28" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
+      <c r="D2" s="5" t="s">
+        <v>56</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>57</v>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -700,23 +726,23 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="42" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -738,23 +764,23 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="28" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
+      <c r="A4" s="4" t="s">
+        <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -776,23 +802,23 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="56" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
+      <c r="A5" s="4" t="s">
+        <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
+      <c r="E5" s="4" t="s">
+        <v>52</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -814,23 +840,23 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="56" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+      <c r="A6" s="4" t="s">
+        <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -852,23 +878,23 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="56" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
+      <c r="A7" s="4" t="s">
+        <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -890,23 +916,23 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="56" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
+      <c r="A8" s="4" t="s">
+        <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -928,23 +954,23 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="56" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
+      <c r="A9" s="4" t="s">
+        <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -966,23 +992,23 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="56" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
+      <c r="A10" s="4" t="s">
+        <v>31</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1004,23 +1030,23 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="56" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1042,23 +1068,23 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="56" customHeight="1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1080,23 +1106,23 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="56" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
+      <c r="A13" s="4" t="s">
+        <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1118,23 +1144,23 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="56" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
+      <c r="A14" s="4" t="s">
+        <v>34</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
+      <c r="E14" s="5" t="s">
+        <v>55</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1156,23 +1182,23 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="70" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
+      <c r="A15" s="4" t="s">
+        <v>34</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
+      <c r="E15" s="5" t="s">
+        <v>57</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1194,23 +1220,23 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="56" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
+      <c r="A16" s="4" t="s">
+        <v>34</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
+      <c r="E16" s="5" t="s">
+        <v>58</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1232,23 +1258,23 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="56" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
+      <c r="A17" s="4" t="s">
+        <v>34</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
+      <c r="E17" s="5" t="s">
+        <v>59</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1270,23 +1296,23 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="56" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
+      <c r="A18" s="4" t="s">
+        <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
+      <c r="E18" s="5" t="s">
+        <v>60</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1308,23 +1334,23 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="56" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
+      <c r="A19" s="4" t="s">
+        <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
+      <c r="E19" s="5" t="s">
+        <v>61</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
